--- a/results/adf_test_results.xlsx
+++ b/results/adf_test_results.xlsx
@@ -494,7 +494,7 @@
         <v>-2.89</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.89184736842105</v>
+        <v>-2.89152795138889</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>

--- a/results/adf_test_results.xlsx
+++ b/results/adf_test_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Test</t>
   </si>
@@ -30,15 +30,6 @@
   </si>
   <si>
     <t xml:space="preserve">Testing_H0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADF Test (Trend)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear Trend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trend Coefficient = 0</t>
   </si>
   <si>
     <t xml:space="preserve">ADF Test (Drift)</t>
@@ -431,10 +422,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>4.16</v>
+        <v>-1.67</v>
       </c>
       <c r="D2" t="n">
-        <v>4.16</v>
+        <v>-2.89</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -448,36 +439,36 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.89</v>
+        <v>-14.12</v>
       </c>
       <c r="D3" t="n">
         <v>-2.89</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.89</v>
+        <v>-18.26</v>
       </c>
       <c r="D4" t="n">
         <v>-2.89</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -485,19 +476,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-4.97</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-2.89</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-2.89152795138889</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -505,19 +496,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.94</v>
+        <v>0.52</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.94</v>
+        <v>3.11</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -525,61 +516,41 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>3.11</v>
+        <v>0.07</v>
       </c>
       <c r="D7" t="n">
-        <v>3.11</v>
+        <v>0.15</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.15</v>
+        <v>0.07</v>
       </c>
       <c r="D8" t="n">
-        <v>0.146</v>
+        <v>0.46</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.463</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="b">
         <v>1</v>
       </c>
     </row>
